--- a/individual_results/harvard/521.xlsx
+++ b/individual_results/harvard/521.xlsx
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -516,13 +516,13 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0.25</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0.5</v>
@@ -553,7 +553,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -562,13 +562,13 @@
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -598,22 +598,16 @@
           <t>f1-score</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0.4</v>
-      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
         <v>0.5</v>
       </c>
-      <c r="E4" t="n">
-        <v>0.5</v>
-      </c>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
         <v>0.4</v>
       </c>
-      <c r="G4" t="n">
-        <v>0.6666666666666666</v>
-      </c>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
         <v>0.6666666666666666</v>
       </c>
@@ -640,22 +634,16 @@
           <t>f2-score</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>0.625</v>
-      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
         <v>0.7142857142857143</v>
       </c>
-      <c r="E5" t="n">
-        <v>0.7142857142857143</v>
-      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
         <v>0.625</v>
       </c>
-      <c r="G5" t="n">
-        <v>0.8333333333333334</v>
-      </c>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
         <v>0.8333333333333334</v>
       </c>
@@ -683,7 +671,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6309297535714575</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -692,13 +680,13 @@
         <v>0.6309297535714575</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6309297535714575</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
@@ -775,7 +763,7 @@
         </is>
       </c>
       <c r="B8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
@@ -784,13 +772,13 @@
         <v>1</v>
       </c>
       <c r="E8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="b">
         <v>1</v>
       </c>
       <c r="G8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" t="b">
         <v>1</v>
@@ -821,7 +809,7 @@
         </is>
       </c>
       <c r="B9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
@@ -830,13 +818,13 @@
         <v>1</v>
       </c>
       <c r="E9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="b">
         <v>1</v>
       </c>
       <c r="G9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="b">
         <v>1</v>
@@ -866,22 +854,16 @@
           <t>position</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>2</v>
-      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
         <v>2</v>
       </c>
-      <c r="E10" t="n">
-        <v>3</v>
-      </c>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
         <v>1</v>
       </c>
-      <c r="G10" t="n">
-        <v>2</v>
-      </c>
+      <c r="G10" t="inlineStr"/>
       <c r="H10" t="n">
         <v>1</v>
       </c>
